--- a/Code/Results/Cases/Case_4_119/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_119/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002900209775423</v>
+        <v>1.036055746563515</v>
       </c>
       <c r="D2">
-        <v>1.019564495909107</v>
+        <v>1.038431795628784</v>
       </c>
       <c r="E2">
-        <v>1.011056280970922</v>
+        <v>1.039703526430413</v>
       </c>
       <c r="F2">
-        <v>0.9799090618706661</v>
+        <v>1.034735289463462</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044685357849056</v>
+        <v>1.038921210627312</v>
       </c>
       <c r="J2">
-        <v>1.024994520747834</v>
+        <v>1.041166149162644</v>
       </c>
       <c r="K2">
-        <v>1.030757832375976</v>
+        <v>1.041219846780695</v>
       </c>
       <c r="L2">
-        <v>1.022363703574122</v>
+        <v>1.042487960110096</v>
       </c>
       <c r="M2">
-        <v>0.9916555777348337</v>
+        <v>1.03753391026133</v>
       </c>
       <c r="N2">
-        <v>1.011339843825452</v>
+        <v>1.017538200654688</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009112624500206</v>
+        <v>1.037266029392024</v>
       </c>
       <c r="D3">
-        <v>1.024225157032274</v>
+        <v>1.039345733560027</v>
       </c>
       <c r="E3">
-        <v>1.016757331461406</v>
+        <v>1.040862634453664</v>
       </c>
       <c r="F3">
-        <v>0.9888637657592547</v>
+        <v>1.03657686658401</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047162398266123</v>
+        <v>1.039315242192911</v>
       </c>
       <c r="J3">
-        <v>1.029357915600609</v>
+        <v>1.042018923185883</v>
       </c>
       <c r="K3">
-        <v>1.03455717852237</v>
+        <v>1.041943522176788</v>
       </c>
       <c r="L3">
-        <v>1.027180196507465</v>
+        <v>1.043456422144053</v>
       </c>
       <c r="M3">
-        <v>0.9996411481430151</v>
+        <v>1.039181990904166</v>
       </c>
       <c r="N3">
-        <v>1.012884510840717</v>
+        <v>1.017832929549581</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013016512895145</v>
+        <v>1.038048000258962</v>
       </c>
       <c r="D4">
-        <v>1.027155985382466</v>
+        <v>1.039936076400179</v>
       </c>
       <c r="E4">
-        <v>1.020344646117451</v>
+        <v>1.041611852462715</v>
       </c>
       <c r="F4">
-        <v>0.9944800519408574</v>
+        <v>1.037767119777883</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048705773200257</v>
+        <v>1.039568257392115</v>
       </c>
       <c r="J4">
-        <v>1.032093015560942</v>
+        <v>1.042569068801202</v>
       </c>
       <c r="K4">
-        <v>1.036937347267415</v>
+        <v>1.042410127747965</v>
       </c>
       <c r="L4">
-        <v>1.030203576690984</v>
+        <v>1.044081707712323</v>
       </c>
       <c r="M4">
-        <v>1.004645557609706</v>
+        <v>1.040246623809783</v>
       </c>
       <c r="N4">
-        <v>1.013851744420607</v>
+        <v>1.01802279790226</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014631398999692</v>
+        <v>1.038376466801827</v>
       </c>
       <c r="D5">
-        <v>1.028368776561919</v>
+        <v>1.040184011098147</v>
       </c>
       <c r="E5">
-        <v>1.021829680022151</v>
+        <v>1.041926635358679</v>
       </c>
       <c r="F5">
-        <v>0.9968011521540302</v>
+        <v>1.038267185851737</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049341005396615</v>
+        <v>1.03967415996568</v>
       </c>
       <c r="J5">
-        <v>1.033222755760845</v>
+        <v>1.042799956822316</v>
       </c>
       <c r="K5">
-        <v>1.037920131177551</v>
+        <v>1.042605893760026</v>
       </c>
       <c r="L5">
-        <v>1.031453410594153</v>
+        <v>1.044344252274389</v>
       </c>
       <c r="M5">
-        <v>1.00671276466228</v>
+        <v>1.04069377847455</v>
       </c>
       <c r="N5">
-        <v>1.014251000570194</v>
+        <v>1.018102418245239</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014901042770623</v>
+        <v>1.038431601839815</v>
       </c>
       <c r="D6">
-        <v>1.028571303750965</v>
+        <v>1.040225626108245</v>
       </c>
       <c r="E6">
-        <v>1.022077705500997</v>
+        <v>1.041979477854964</v>
       </c>
       <c r="F6">
-        <v>0.9971886022825792</v>
+        <v>1.038351130932533</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049446883270469</v>
+        <v>1.039691914254596</v>
       </c>
       <c r="J6">
-        <v>1.033411294480093</v>
+        <v>1.042838700975372</v>
       </c>
       <c r="K6">
-        <v>1.038084123551373</v>
+        <v>1.042638740649646</v>
       </c>
       <c r="L6">
-        <v>1.031662051183858</v>
+        <v>1.04438831567529</v>
       </c>
       <c r="M6">
-        <v>1.007057772586894</v>
+        <v>1.040768833558941</v>
       </c>
       <c r="N6">
-        <v>1.014317615144323</v>
+        <v>1.018115775134038</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013038192623846</v>
+        <v>1.038052390316176</v>
       </c>
       <c r="D7">
-        <v>1.027172265439887</v>
+        <v>1.03993939027691</v>
       </c>
       <c r="E7">
-        <v>1.020364578282616</v>
+        <v>1.041616059342664</v>
       </c>
       <c r="F7">
-        <v>0.9945112204168871</v>
+        <v>1.037773802913903</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048714313862329</v>
+        <v>1.039569674292573</v>
       </c>
       <c r="J7">
-        <v>1.032108188848713</v>
+        <v>1.042572155479158</v>
       </c>
       <c r="K7">
-        <v>1.036950548237036</v>
+        <v>1.042412745131726</v>
       </c>
       <c r="L7">
-        <v>1.030220358901354</v>
+        <v>1.044085217120277</v>
       </c>
       <c r="M7">
-        <v>1.004673320808592</v>
+        <v>1.040252600337975</v>
       </c>
       <c r="N7">
-        <v>1.013857107805367</v>
+        <v>1.01802386257902</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005024647726993</v>
+        <v>1.036465010802484</v>
       </c>
       <c r="D8">
-        <v>1.021157804489118</v>
+        <v>1.0387408813475</v>
       </c>
       <c r="E8">
-        <v>1.013004817000955</v>
+        <v>1.040095420811786</v>
       </c>
       <c r="F8">
-        <v>0.98297386411418</v>
+        <v>1.035357949870197</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045535185914347</v>
+        <v>1.039054780147973</v>
       </c>
       <c r="J8">
-        <v>1.026488092913846</v>
+        <v>1.04145469305844</v>
       </c>
       <c r="K8">
-        <v>1.032058608165357</v>
+        <v>1.041464761737402</v>
       </c>
       <c r="L8">
-        <v>1.024011464769365</v>
+        <v>1.042815543011482</v>
       </c>
       <c r="M8">
-        <v>0.9943895136087189</v>
+        <v>1.03809126282405</v>
       </c>
       <c r="N8">
-        <v>1.011868777060071</v>
+        <v>1.017637980400865</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9899434186500323</v>
+        <v>1.03365873835494</v>
       </c>
       <c r="D9">
-        <v>1.009859218223504</v>
+        <v>1.036620901784633</v>
       </c>
       <c r="E9">
-        <v>0.999194795859874</v>
+        <v>1.037409547529677</v>
       </c>
       <c r="F9">
-        <v>0.9611478324187362</v>
+        <v>1.031089887679892</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039446756827892</v>
+        <v>1.038132462015237</v>
       </c>
       <c r="J9">
-        <v>1.015856368100799</v>
+        <v>1.039472748088476</v>
       </c>
       <c r="K9">
-        <v>1.022794336377242</v>
+        <v>1.039781455430344</v>
       </c>
       <c r="L9">
-        <v>1.012300950462159</v>
+        <v>1.040567534027827</v>
       </c>
       <c r="M9">
-        <v>0.9749043650550887</v>
+        <v>1.034268566513044</v>
       </c>
       <c r="N9">
-        <v>1.008100195420283</v>
+        <v>1.016951520279107</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9791298862113988</v>
+        <v>1.031781485749073</v>
       </c>
       <c r="D10">
-        <v>1.001777540651236</v>
+        <v>1.035201998931867</v>
       </c>
       <c r="E10">
-        <v>0.98932390429909</v>
+        <v>1.035614481718923</v>
       </c>
       <c r="F10">
-        <v>0.9453796431757777</v>
+        <v>1.028236367504404</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035011614925649</v>
+        <v>1.037507382198087</v>
       </c>
       <c r="J10">
-        <v>1.008196723854472</v>
+        <v>1.038142612440323</v>
       </c>
       <c r="K10">
-        <v>1.016114775049083</v>
+        <v>1.038650451094997</v>
       </c>
       <c r="L10">
-        <v>1.003888632039797</v>
+        <v>1.039061458270402</v>
       </c>
       <c r="M10">
-        <v>0.9608104575025964</v>
+        <v>1.031709935899169</v>
       </c>
       <c r="N10">
-        <v>1.005381748842102</v>
+        <v>1.016489454100309</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9742375412834994</v>
+        <v>1.030967032241109</v>
       </c>
       <c r="D11">
-        <v>0.9981272403238025</v>
+        <v>1.034586235758235</v>
       </c>
       <c r="E11">
-        <v>0.9848662697996995</v>
+        <v>1.0348360810206</v>
       </c>
       <c r="F11">
-        <v>0.9382061783675147</v>
+        <v>1.026998665664421</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032988996828193</v>
+        <v>1.037234271205336</v>
       </c>
       <c r="J11">
-        <v>1.004722779591323</v>
+        <v>1.037564504954822</v>
       </c>
       <c r="K11">
-        <v>1.013084560778758</v>
+        <v>1.038158588297747</v>
       </c>
       <c r="L11">
-        <v>1.000079342985204</v>
+        <v>1.038407504787177</v>
       </c>
       <c r="M11">
-        <v>0.9543957551771587</v>
+        <v>1.03059946259778</v>
       </c>
       <c r="N11">
-        <v>1.004148405623259</v>
+        <v>1.016288309748808</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9723858010836961</v>
+        <v>1.030664263395028</v>
       </c>
       <c r="D12">
-        <v>0.9967466558920672</v>
+        <v>1.034357304838125</v>
       </c>
       <c r="E12">
-        <v>0.9831803805442292</v>
+        <v>1.034546774526069</v>
       </c>
       <c r="F12">
-        <v>0.9354839516151262</v>
+        <v>1.026538597082158</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032221075834858</v>
+        <v>1.037132455716783</v>
       </c>
       <c r="J12">
-        <v>1.00340663247507</v>
+        <v>1.037349442894079</v>
       </c>
       <c r="K12">
-        <v>1.011936451394047</v>
+        <v>1.037975565098822</v>
       </c>
       <c r="L12">
-        <v>0.998637071448509</v>
+        <v>1.038164320586858</v>
       </c>
       <c r="M12">
-        <v>0.9519611398371033</v>
+        <v>1.030186584655594</v>
       </c>
       <c r="N12">
-        <v>1.003681109696976</v>
+        <v>1.01621343421282</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9727846188887079</v>
+        <v>1.030729219496402</v>
       </c>
       <c r="D13">
-        <v>0.9970439493122718</v>
+        <v>1.034406420813047</v>
       </c>
       <c r="E13">
-        <v>0.9835434176572507</v>
+        <v>1.034608839693432</v>
       </c>
       <c r="F13">
-        <v>0.9360705905423354</v>
+        <v>1.026637298562766</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032386572533507</v>
+        <v>1.037154312259651</v>
       </c>
       <c r="J13">
-        <v>1.003690154238351</v>
+        <v>1.03739558931035</v>
       </c>
       <c r="K13">
-        <v>1.012183777473495</v>
+        <v>1.038014838887922</v>
       </c>
       <c r="L13">
-        <v>0.9989477205656997</v>
+        <v>1.038216497018589</v>
       </c>
       <c r="M13">
-        <v>0.9524858114309228</v>
+        <v>1.03027516662334</v>
       </c>
       <c r="N13">
-        <v>1.003781774335423</v>
+        <v>1.016229502602014</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9740851982639415</v>
+        <v>1.030942010294896</v>
       </c>
       <c r="D14">
-        <v>0.998013637390215</v>
+        <v>1.034567316541543</v>
       </c>
       <c r="E14">
-        <v>0.984727544256209</v>
+        <v>1.034812170428921</v>
       </c>
       <c r="F14">
-        <v>0.9379823712871027</v>
+        <v>1.026960643086902</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032925867523365</v>
+        <v>1.037225862664198</v>
       </c>
       <c r="J14">
-        <v>1.004614525583997</v>
+        <v>1.037546734556958</v>
       </c>
       <c r="K14">
-        <v>1.012990129254599</v>
+        <v>1.038143466161089</v>
       </c>
       <c r="L14">
-        <v>0.9999606962726975</v>
+        <v>1.038387408776806</v>
       </c>
       <c r="M14">
-        <v>0.9541955999303438</v>
+        <v>1.030565342185746</v>
       </c>
       <c r="N14">
-        <v>1.004109970576285</v>
+        <v>1.01628212381724</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9748818607216299</v>
+        <v>1.031073085156569</v>
       </c>
       <c r="D15">
-        <v>0.9986077557581504</v>
+        <v>1.034666421905155</v>
       </c>
       <c r="E15">
-        <v>0.9854530493777041</v>
+        <v>1.034937426030732</v>
       </c>
       <c r="F15">
-        <v>0.9391524524259004</v>
+        <v>1.027159822031367</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033255899999741</v>
+        <v>1.0372698981469</v>
       </c>
       <c r="J15">
-        <v>1.005180577516384</v>
+        <v>1.03763981664857</v>
       </c>
       <c r="K15">
-        <v>1.013483901693611</v>
+        <v>1.038222674706663</v>
       </c>
       <c r="L15">
-        <v>1.000581128581339</v>
+        <v>1.038492676345782</v>
       </c>
       <c r="M15">
-        <v>0.9552420147981815</v>
+        <v>1.030744075711644</v>
       </c>
       <c r="N15">
-        <v>1.004310943559334</v>
+        <v>1.016314524035759</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.979449907055465</v>
+        <v>1.031835504357514</v>
       </c>
       <c r="D16">
-        <v>1.002016452772753</v>
+        <v>1.035242835975483</v>
       </c>
       <c r="E16">
-        <v>0.9896156663601261</v>
+        <v>1.035666117495668</v>
       </c>
       <c r="F16">
-        <v>0.9458479676544937</v>
+        <v>1.028318464061173</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035143591351808</v>
+        <v>1.037525455923778</v>
       </c>
       <c r="J16">
-        <v>1.008423788331978</v>
+        <v>1.038180933875827</v>
       </c>
       <c r="K16">
-        <v>1.016312823735543</v>
+        <v>1.038683049234992</v>
       </c>
       <c r="L16">
-        <v>1.004137741520474</v>
+        <v>1.039104820440967</v>
       </c>
       <c r="M16">
-        <v>0.9612291942302763</v>
+        <v>1.031783579140043</v>
       </c>
       <c r="N16">
-        <v>1.005462356942191</v>
+        <v>1.016502780803374</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9822571301140591</v>
+        <v>1.032313319981943</v>
       </c>
       <c r="D17">
-        <v>1.004112890634469</v>
+        <v>1.035604036414877</v>
       </c>
       <c r="E17">
-        <v>0.992175941180986</v>
+        <v>1.036122901772965</v>
       </c>
       <c r="F17">
-        <v>0.9499515345483288</v>
+        <v>1.02904467503433</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036299484243188</v>
+        <v>1.037685103787006</v>
       </c>
       <c r="J17">
-        <v>1.010414639769331</v>
+        <v>1.038519783859959</v>
       </c>
       <c r="K17">
-        <v>1.018049188245167</v>
+        <v>1.038971257254207</v>
       </c>
       <c r="L17">
-        <v>1.006322559467065</v>
+        <v>1.039488313831489</v>
       </c>
       <c r="M17">
-        <v>0.9648979444085903</v>
+        <v>1.032434935354669</v>
       </c>
       <c r="N17">
-        <v>1.006169067321424</v>
+        <v>1.016620582802849</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9838744915379716</v>
+        <v>1.032591868646771</v>
       </c>
       <c r="D18">
-        <v>1.005321300212396</v>
+        <v>1.035814586676061</v>
       </c>
       <c r="E18">
-        <v>0.9936517935227126</v>
+        <v>1.036389228056684</v>
       </c>
       <c r="F18">
-        <v>0.9523121474752873</v>
+        <v>1.029468059106867</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036963933859975</v>
+        <v>1.037777987706779</v>
       </c>
       <c r="J18">
-        <v>1.011560854689831</v>
+        <v>1.038717222167368</v>
       </c>
       <c r="K18">
-        <v>1.019048808931708</v>
+        <v>1.039139158788092</v>
       </c>
       <c r="L18">
-        <v>1.007581012442851</v>
+        <v>1.039711824435726</v>
       </c>
       <c r="M18">
-        <v>0.9670081434756124</v>
+        <v>1.032814613371512</v>
       </c>
       <c r="N18">
-        <v>1.006575907425665</v>
+        <v>1.016689191889986</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9844226535426249</v>
+        <v>1.032686820741037</v>
       </c>
       <c r="D19">
-        <v>1.00573095037319</v>
+        <v>1.035886356613042</v>
       </c>
       <c r="E19">
-        <v>0.9941521229119956</v>
+        <v>1.036480020217219</v>
       </c>
       <c r="F19">
-        <v>0.9531116308793405</v>
+        <v>1.029612388214067</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037188874154725</v>
+        <v>1.037809618763986</v>
       </c>
       <c r="J19">
-        <v>1.011949197982454</v>
+        <v>1.038784508516734</v>
       </c>
       <c r="K19">
-        <v>1.019387471379611</v>
+        <v>1.039196374146524</v>
       </c>
       <c r="L19">
-        <v>1.008007477599489</v>
+        <v>1.039788006292843</v>
       </c>
       <c r="M19">
-        <v>0.967722766878427</v>
+        <v>1.032944032243139</v>
       </c>
       <c r="N19">
-        <v>1.00671373874327</v>
+        <v>1.016712568414101</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9819580350163034</v>
+        <v>1.032262070765459</v>
       </c>
       <c r="D20">
-        <v>1.003889466725188</v>
+        <v>1.035565296689011</v>
       </c>
       <c r="E20">
-        <v>0.9919030767611391</v>
+        <v>1.036073904376147</v>
       </c>
       <c r="F20">
-        <v>0.9495147053197708</v>
+        <v>1.028966780520638</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03617648643187</v>
+        <v>1.037667999507206</v>
       </c>
       <c r="J20">
-        <v>1.010202607888581</v>
+        <v>1.038483449922003</v>
       </c>
       <c r="K20">
-        <v>1.017864267600451</v>
+        <v>1.038940356524718</v>
       </c>
       <c r="L20">
-        <v>1.006089810831087</v>
+        <v>1.039447186713101</v>
       </c>
       <c r="M20">
-        <v>0.9645074304663409</v>
+        <v>1.032365076644264</v>
       </c>
       <c r="N20">
-        <v>1.006093804600566</v>
+        <v>1.016607954408876</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9737031882978298</v>
+        <v>1.030879355504044</v>
       </c>
       <c r="D21">
-        <v>0.9977287879649627</v>
+        <v>1.034519942558316</v>
       </c>
       <c r="E21">
-        <v>0.9843797023950102</v>
+        <v>1.034752299431716</v>
       </c>
       <c r="F21">
-        <v>0.9374210423338277</v>
+        <v>1.026865435435733</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032767528833727</v>
+        <v>1.037204803082583</v>
       </c>
       <c r="J21">
-        <v>1.004343051304107</v>
+        <v>1.037502235115205</v>
       </c>
       <c r="K21">
-        <v>1.012753317289213</v>
+        <v>1.038105597591348</v>
       </c>
       <c r="L21">
-        <v>0.9996631746066734</v>
+        <v>1.038337087199442</v>
       </c>
       <c r="M21">
-        <v>0.9536935871115769</v>
+        <v>1.030479903823994</v>
       </c>
       <c r="N21">
-        <v>1.004013584650029</v>
+        <v>1.016266632651602</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9683116302111477</v>
+        <v>1.030008569865266</v>
       </c>
       <c r="D22">
-        <v>0.9937111989948827</v>
+        <v>1.033861475656042</v>
       </c>
       <c r="E22">
-        <v>0.9794736276948829</v>
+        <v>1.033920345917816</v>
       </c>
       <c r="F22">
-        <v>0.9294800198365584</v>
+        <v>1.025542314144583</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030527194077023</v>
+        <v>1.036911431829859</v>
       </c>
       <c r="J22">
-        <v>1.000508533674231</v>
+        <v>1.036883411238966</v>
       </c>
       <c r="K22">
-        <v>1.009408276245284</v>
+        <v>1.037578878406593</v>
       </c>
       <c r="L22">
-        <v>0.9954629857647403</v>
+        <v>1.037637520116294</v>
       </c>
       <c r="M22">
-        <v>0.9465910752060845</v>
+        <v>1.029292307649869</v>
       </c>
       <c r="N22">
-        <v>1.002652133365406</v>
+        <v>1.016051094673023</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9711899833804599</v>
+        <v>1.030470326054173</v>
       </c>
       <c r="D23">
-        <v>0.9958554134868962</v>
+        <v>1.034210657378568</v>
       </c>
       <c r="E23">
-        <v>0.9820920467930072</v>
+        <v>1.034361477360753</v>
       </c>
       <c r="F23">
-        <v>0.9337238311478622</v>
+        <v>1.026243912748048</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03172450630125</v>
+        <v>1.037067157197925</v>
       </c>
       <c r="J23">
-        <v>1.002556333796943</v>
+        <v>1.037211642534204</v>
       </c>
       <c r="K23">
-        <v>1.011194698203282</v>
+        <v>1.03785828089752</v>
       </c>
       <c r="L23">
-        <v>0.9977055536273224</v>
+        <v>1.038008527336496</v>
       </c>
       <c r="M23">
-        <v>0.950386904381103</v>
+        <v>1.029922098381577</v>
       </c>
       <c r="N23">
-        <v>1.003379209136879</v>
+        <v>1.016165444545223</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.982093244941135</v>
+        <v>1.032285228553088</v>
       </c>
       <c r="D24">
-        <v>1.003990466745035</v>
+        <v>1.035582801910791</v>
       </c>
       <c r="E24">
-        <v>0.992026426377385</v>
+        <v>1.036096044524906</v>
       </c>
       <c r="F24">
-        <v>0.949712190979445</v>
+        <v>1.029001978322787</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036232093924762</v>
+        <v>1.037675728923986</v>
       </c>
       <c r="J24">
-        <v>1.01029846221136</v>
+        <v>1.038499868304377</v>
       </c>
       <c r="K24">
-        <v>1.017947865848025</v>
+        <v>1.038954319868478</v>
       </c>
       <c r="L24">
-        <v>1.006195028932306</v>
+        <v>1.039465770826805</v>
       </c>
       <c r="M24">
-        <v>0.9646839783813211</v>
+        <v>1.03239664355058</v>
       </c>
       <c r="N24">
-        <v>1.006127829132086</v>
+        <v>1.01661366095417</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9939669968473414</v>
+        <v>1.034385335095648</v>
       </c>
       <c r="D25">
-        <v>1.012870698674441</v>
+        <v>1.037169938938617</v>
       </c>
       <c r="E25">
-        <v>1.002874172598748</v>
+        <v>1.038104682810893</v>
       </c>
       <c r="F25">
-        <v>0.9669877924508395</v>
+        <v>1.032194665472047</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041083118671716</v>
+        <v>1.038372693243779</v>
       </c>
       <c r="J25">
-        <v>1.018699115494935</v>
+        <v>1.039986670758239</v>
       </c>
       <c r="K25">
-        <v>1.025272445966396</v>
+        <v>1.040218169108321</v>
       </c>
       <c r="L25">
-        <v>1.01542803399013</v>
+        <v>1.041149986703071</v>
       </c>
       <c r="M25">
-        <v>0.9801211519785488</v>
+        <v>1.035258568572324</v>
       </c>
       <c r="N25">
-        <v>1.009108537445915</v>
+        <v>1.017129762002455</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_119/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_119/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036055746563515</v>
+        <v>1.002900209775424</v>
       </c>
       <c r="D2">
-        <v>1.038431795628784</v>
+        <v>1.019564495909108</v>
       </c>
       <c r="E2">
-        <v>1.039703526430413</v>
+        <v>1.011056280970924</v>
       </c>
       <c r="F2">
-        <v>1.034735289463462</v>
+        <v>0.9799090618706676</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038921210627312</v>
+        <v>1.044685357849057</v>
       </c>
       <c r="J2">
-        <v>1.041166149162644</v>
+        <v>1.024994520747835</v>
       </c>
       <c r="K2">
-        <v>1.041219846780695</v>
+        <v>1.030757832375977</v>
       </c>
       <c r="L2">
-        <v>1.042487960110096</v>
+        <v>1.022363703574123</v>
       </c>
       <c r="M2">
-        <v>1.03753391026133</v>
+        <v>0.9916555777348351</v>
       </c>
       <c r="N2">
-        <v>1.017538200654688</v>
+        <v>1.011339843825452</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037266029392024</v>
+        <v>1.009112624500204</v>
       </c>
       <c r="D3">
-        <v>1.039345733560027</v>
+        <v>1.024225157032272</v>
       </c>
       <c r="E3">
-        <v>1.040862634453664</v>
+        <v>1.016757331461404</v>
       </c>
       <c r="F3">
-        <v>1.03657686658401</v>
+        <v>0.9888637657592532</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039315242192911</v>
+        <v>1.047162398266122</v>
       </c>
       <c r="J3">
-        <v>1.042018923185883</v>
+        <v>1.029357915600607</v>
       </c>
       <c r="K3">
-        <v>1.041943522176788</v>
+        <v>1.034557178522368</v>
       </c>
       <c r="L3">
-        <v>1.043456422144053</v>
+        <v>1.027180196507463</v>
       </c>
       <c r="M3">
-        <v>1.039181990904166</v>
+        <v>0.9996411481430136</v>
       </c>
       <c r="N3">
-        <v>1.017832929549581</v>
+        <v>1.012884510840716</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038048000258962</v>
+        <v>1.013016512895146</v>
       </c>
       <c r="D4">
-        <v>1.039936076400179</v>
+        <v>1.027155985382467</v>
       </c>
       <c r="E4">
-        <v>1.041611852462715</v>
+        <v>1.020344646117453</v>
       </c>
       <c r="F4">
-        <v>1.037767119777883</v>
+        <v>0.9944800519408581</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039568257392115</v>
+        <v>1.048705773200258</v>
       </c>
       <c r="J4">
-        <v>1.042569068801202</v>
+        <v>1.032093015560944</v>
       </c>
       <c r="K4">
-        <v>1.042410127747965</v>
+        <v>1.036937347267416</v>
       </c>
       <c r="L4">
-        <v>1.044081707712323</v>
+        <v>1.030203576690985</v>
       </c>
       <c r="M4">
-        <v>1.040246623809783</v>
+        <v>1.004645557609707</v>
       </c>
       <c r="N4">
-        <v>1.01802279790226</v>
+        <v>1.013851744420607</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038376466801827</v>
+        <v>1.014631398999692</v>
       </c>
       <c r="D5">
-        <v>1.040184011098147</v>
+        <v>1.028368776561918</v>
       </c>
       <c r="E5">
-        <v>1.041926635358679</v>
+        <v>1.02182968002215</v>
       </c>
       <c r="F5">
-        <v>1.038267185851737</v>
+        <v>0.9968011521540298</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03967415996568</v>
+        <v>1.049341005396615</v>
       </c>
       <c r="J5">
-        <v>1.042799956822316</v>
+        <v>1.033222755760845</v>
       </c>
       <c r="K5">
-        <v>1.042605893760026</v>
+        <v>1.037920131177551</v>
       </c>
       <c r="L5">
-        <v>1.044344252274389</v>
+        <v>1.031453410594152</v>
       </c>
       <c r="M5">
-        <v>1.04069377847455</v>
+        <v>1.00671276466228</v>
       </c>
       <c r="N5">
-        <v>1.018102418245239</v>
+        <v>1.014251000570194</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038431601839815</v>
+        <v>1.014901042770625</v>
       </c>
       <c r="D6">
-        <v>1.040225626108245</v>
+        <v>1.028571303750967</v>
       </c>
       <c r="E6">
-        <v>1.041979477854964</v>
+        <v>1.022077705500999</v>
       </c>
       <c r="F6">
-        <v>1.038351130932533</v>
+        <v>0.997188602282581</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039691914254596</v>
+        <v>1.04944688327047</v>
       </c>
       <c r="J6">
-        <v>1.042838700975372</v>
+        <v>1.033411294480094</v>
       </c>
       <c r="K6">
-        <v>1.042638740649646</v>
+        <v>1.038084123551375</v>
       </c>
       <c r="L6">
-        <v>1.04438831567529</v>
+        <v>1.03166205118386</v>
       </c>
       <c r="M6">
-        <v>1.040768833558941</v>
+        <v>1.007057772586896</v>
       </c>
       <c r="N6">
-        <v>1.018115775134038</v>
+        <v>1.014317615144324</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038052390316176</v>
+        <v>1.013038192623846</v>
       </c>
       <c r="D7">
-        <v>1.03993939027691</v>
+        <v>1.027172265439887</v>
       </c>
       <c r="E7">
-        <v>1.041616059342664</v>
+        <v>1.020364578282616</v>
       </c>
       <c r="F7">
-        <v>1.037773802913903</v>
+        <v>0.9945112204168876</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039569674292573</v>
+        <v>1.048714313862329</v>
       </c>
       <c r="J7">
-        <v>1.042572155479158</v>
+        <v>1.032108188848713</v>
       </c>
       <c r="K7">
-        <v>1.042412745131726</v>
+        <v>1.036950548237036</v>
       </c>
       <c r="L7">
-        <v>1.044085217120277</v>
+        <v>1.030220358901354</v>
       </c>
       <c r="M7">
-        <v>1.040252600337975</v>
+        <v>1.004673320808592</v>
       </c>
       <c r="N7">
-        <v>1.01802386257902</v>
+        <v>1.013857107805367</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036465010802484</v>
+        <v>1.005024647726993</v>
       </c>
       <c r="D8">
-        <v>1.0387408813475</v>
+        <v>1.021157804489118</v>
       </c>
       <c r="E8">
-        <v>1.040095420811786</v>
+        <v>1.013004817000955</v>
       </c>
       <c r="F8">
-        <v>1.035357949870197</v>
+        <v>0.9829738641141794</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039054780147973</v>
+        <v>1.045535185914347</v>
       </c>
       <c r="J8">
-        <v>1.04145469305844</v>
+        <v>1.026488092913846</v>
       </c>
       <c r="K8">
-        <v>1.041464761737402</v>
+        <v>1.032058608165357</v>
       </c>
       <c r="L8">
-        <v>1.042815543011482</v>
+        <v>1.024011464769365</v>
       </c>
       <c r="M8">
-        <v>1.03809126282405</v>
+        <v>0.9943895136087186</v>
       </c>
       <c r="N8">
-        <v>1.017637980400865</v>
+        <v>1.011868777060071</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03365873835494</v>
+        <v>0.9899434186500334</v>
       </c>
       <c r="D9">
-        <v>1.036620901784633</v>
+        <v>1.009859218223504</v>
       </c>
       <c r="E9">
-        <v>1.037409547529677</v>
+        <v>0.999194795859875</v>
       </c>
       <c r="F9">
-        <v>1.031089887679892</v>
+        <v>0.9611478324187379</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038132462015237</v>
+        <v>1.039446756827893</v>
       </c>
       <c r="J9">
-        <v>1.039472748088476</v>
+        <v>1.0158563681008</v>
       </c>
       <c r="K9">
-        <v>1.039781455430344</v>
+        <v>1.022794336377244</v>
       </c>
       <c r="L9">
-        <v>1.040567534027827</v>
+        <v>1.012300950462161</v>
       </c>
       <c r="M9">
-        <v>1.034268566513044</v>
+        <v>0.9749043650550903</v>
       </c>
       <c r="N9">
-        <v>1.016951520279107</v>
+        <v>1.008100195420284</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031781485749073</v>
+        <v>0.9791298862114007</v>
       </c>
       <c r="D10">
-        <v>1.035201998931867</v>
+        <v>1.001777540651238</v>
       </c>
       <c r="E10">
-        <v>1.035614481718923</v>
+        <v>0.9893239042990919</v>
       </c>
       <c r="F10">
-        <v>1.028236367504404</v>
+        <v>0.9453796431757802</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037507382198087</v>
+        <v>1.035011614925651</v>
       </c>
       <c r="J10">
-        <v>1.038142612440323</v>
+        <v>1.008196723854474</v>
       </c>
       <c r="K10">
-        <v>1.038650451094997</v>
+        <v>1.016114775049084</v>
       </c>
       <c r="L10">
-        <v>1.039061458270402</v>
+        <v>1.003888632039799</v>
       </c>
       <c r="M10">
-        <v>1.031709935899169</v>
+        <v>0.9608104575025991</v>
       </c>
       <c r="N10">
-        <v>1.016489454100309</v>
+        <v>1.005381748842103</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030967032241109</v>
+        <v>0.9742375412835019</v>
       </c>
       <c r="D11">
-        <v>1.034586235758235</v>
+        <v>0.9981272403238048</v>
       </c>
       <c r="E11">
-        <v>1.0348360810206</v>
+        <v>0.9848662697997014</v>
       </c>
       <c r="F11">
-        <v>1.026998665664421</v>
+        <v>0.9382061783675174</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037234271205336</v>
+        <v>1.032988996828194</v>
       </c>
       <c r="J11">
-        <v>1.037564504954822</v>
+        <v>1.004722779591324</v>
       </c>
       <c r="K11">
-        <v>1.038158588297747</v>
+        <v>1.01308456077876</v>
       </c>
       <c r="L11">
-        <v>1.038407504787177</v>
+        <v>1.000079342985206</v>
       </c>
       <c r="M11">
-        <v>1.03059946259778</v>
+        <v>0.9543957551771614</v>
       </c>
       <c r="N11">
-        <v>1.016288309748808</v>
+        <v>1.00414840562326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030664263395028</v>
+        <v>0.9723858010836967</v>
       </c>
       <c r="D12">
-        <v>1.034357304838125</v>
+        <v>0.9967466558920676</v>
       </c>
       <c r="E12">
-        <v>1.034546774526069</v>
+        <v>0.9831803805442301</v>
       </c>
       <c r="F12">
-        <v>1.026538597082158</v>
+        <v>0.9354839516151263</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037132455716783</v>
+        <v>1.032221075834858</v>
       </c>
       <c r="J12">
-        <v>1.037349442894079</v>
+        <v>1.00340663247507</v>
       </c>
       <c r="K12">
-        <v>1.037975565098822</v>
+        <v>1.011936451394047</v>
       </c>
       <c r="L12">
-        <v>1.038164320586858</v>
+        <v>0.9986370714485097</v>
       </c>
       <c r="M12">
-        <v>1.030186584655594</v>
+        <v>0.9519611398371034</v>
       </c>
       <c r="N12">
-        <v>1.01621343421282</v>
+        <v>1.003681109696976</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030729219496402</v>
+        <v>0.9727846188887077</v>
       </c>
       <c r="D13">
-        <v>1.034406420813047</v>
+        <v>0.9970439493122717</v>
       </c>
       <c r="E13">
-        <v>1.034608839693432</v>
+        <v>0.9835434176572505</v>
       </c>
       <c r="F13">
-        <v>1.026637298562766</v>
+        <v>0.9360705905423349</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037154312259651</v>
+        <v>1.032386572533507</v>
       </c>
       <c r="J13">
-        <v>1.03739558931035</v>
+        <v>1.003690154238351</v>
       </c>
       <c r="K13">
-        <v>1.038014838887922</v>
+        <v>1.012183777473495</v>
       </c>
       <c r="L13">
-        <v>1.038216497018589</v>
+        <v>0.9989477205656996</v>
       </c>
       <c r="M13">
-        <v>1.03027516662334</v>
+        <v>0.9524858114309223</v>
       </c>
       <c r="N13">
-        <v>1.016229502602014</v>
+        <v>1.003781774335423</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030942010294896</v>
+        <v>0.9740851982639401</v>
       </c>
       <c r="D14">
-        <v>1.034567316541543</v>
+        <v>0.9980136373902134</v>
       </c>
       <c r="E14">
-        <v>1.034812170428921</v>
+        <v>0.9847275442562076</v>
       </c>
       <c r="F14">
-        <v>1.026960643086902</v>
+        <v>0.9379823712871016</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037225862664198</v>
+        <v>1.032925867523364</v>
       </c>
       <c r="J14">
-        <v>1.037546734556958</v>
+        <v>1.004614525583996</v>
       </c>
       <c r="K14">
-        <v>1.038143466161089</v>
+        <v>1.012990129254597</v>
       </c>
       <c r="L14">
-        <v>1.038387408776806</v>
+        <v>0.9999606962726961</v>
       </c>
       <c r="M14">
-        <v>1.030565342185746</v>
+        <v>0.9541955999303426</v>
       </c>
       <c r="N14">
-        <v>1.01628212381724</v>
+        <v>1.004109970576285</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031073085156569</v>
+        <v>0.9748818607216299</v>
       </c>
       <c r="D15">
-        <v>1.034666421905155</v>
+        <v>0.9986077557581505</v>
       </c>
       <c r="E15">
-        <v>1.034937426030732</v>
+        <v>0.9854530493777044</v>
       </c>
       <c r="F15">
-        <v>1.027159822031367</v>
+        <v>0.9391524524259004</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0372698981469</v>
+        <v>1.033255899999741</v>
       </c>
       <c r="J15">
-        <v>1.03763981664857</v>
+        <v>1.005180577516385</v>
       </c>
       <c r="K15">
-        <v>1.038222674706663</v>
+        <v>1.013483901693611</v>
       </c>
       <c r="L15">
-        <v>1.038492676345782</v>
+        <v>1.00058112858134</v>
       </c>
       <c r="M15">
-        <v>1.030744075711644</v>
+        <v>0.9552420147981813</v>
       </c>
       <c r="N15">
-        <v>1.016314524035759</v>
+        <v>1.004310943559334</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031835504357514</v>
+        <v>0.9794499070554633</v>
       </c>
       <c r="D16">
-        <v>1.035242835975483</v>
+        <v>1.002016452772752</v>
       </c>
       <c r="E16">
-        <v>1.035666117495668</v>
+        <v>0.9896156663601248</v>
       </c>
       <c r="F16">
-        <v>1.028318464061173</v>
+        <v>0.9458479676544913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037525455923778</v>
+        <v>1.035143591351807</v>
       </c>
       <c r="J16">
-        <v>1.038180933875827</v>
+        <v>1.008423788331976</v>
       </c>
       <c r="K16">
-        <v>1.038683049234992</v>
+        <v>1.016312823735541</v>
       </c>
       <c r="L16">
-        <v>1.039104820440967</v>
+        <v>1.004137741520472</v>
       </c>
       <c r="M16">
-        <v>1.031783579140043</v>
+        <v>0.9612291942302742</v>
       </c>
       <c r="N16">
-        <v>1.016502780803374</v>
+        <v>1.005462356942191</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032313319981943</v>
+        <v>0.9822571301140588</v>
       </c>
       <c r="D17">
-        <v>1.035604036414877</v>
+        <v>1.004112890634469</v>
       </c>
       <c r="E17">
-        <v>1.036122901772965</v>
+        <v>0.9921759411809857</v>
       </c>
       <c r="F17">
-        <v>1.02904467503433</v>
+        <v>0.9499515345483278</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037685103787006</v>
+        <v>1.036299484243187</v>
       </c>
       <c r="J17">
-        <v>1.038519783859959</v>
+        <v>1.01041463976933</v>
       </c>
       <c r="K17">
-        <v>1.038971257254207</v>
+        <v>1.018049188245167</v>
       </c>
       <c r="L17">
-        <v>1.039488313831489</v>
+        <v>1.006322559467065</v>
       </c>
       <c r="M17">
-        <v>1.032434935354669</v>
+        <v>0.9648979444085894</v>
       </c>
       <c r="N17">
-        <v>1.016620582802849</v>
+        <v>1.006169067321424</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032591868646771</v>
+        <v>0.9838744915379716</v>
       </c>
       <c r="D18">
-        <v>1.035814586676061</v>
+        <v>1.005321300212396</v>
       </c>
       <c r="E18">
-        <v>1.036389228056684</v>
+        <v>0.9936517935227124</v>
       </c>
       <c r="F18">
-        <v>1.029468059106867</v>
+        <v>0.9523121474752874</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037777987706779</v>
+        <v>1.036963933859975</v>
       </c>
       <c r="J18">
-        <v>1.038717222167368</v>
+        <v>1.01156085468983</v>
       </c>
       <c r="K18">
-        <v>1.039139158788092</v>
+        <v>1.019048808931708</v>
       </c>
       <c r="L18">
-        <v>1.039711824435726</v>
+        <v>1.007581012442851</v>
       </c>
       <c r="M18">
-        <v>1.032814613371512</v>
+        <v>0.9670081434756125</v>
       </c>
       <c r="N18">
-        <v>1.016689191889986</v>
+        <v>1.006575907425665</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032686820741037</v>
+        <v>0.9844226535426271</v>
       </c>
       <c r="D19">
-        <v>1.035886356613042</v>
+        <v>1.005730950373192</v>
       </c>
       <c r="E19">
-        <v>1.036480020217219</v>
+        <v>0.9941521229119976</v>
       </c>
       <c r="F19">
-        <v>1.029612388214067</v>
+        <v>0.9531116308793433</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037809618763986</v>
+        <v>1.037188874154726</v>
       </c>
       <c r="J19">
-        <v>1.038784508516734</v>
+        <v>1.011949197982456</v>
       </c>
       <c r="K19">
-        <v>1.039196374146524</v>
+        <v>1.019387471379613</v>
       </c>
       <c r="L19">
-        <v>1.039788006292843</v>
+        <v>1.008007477599491</v>
       </c>
       <c r="M19">
-        <v>1.032944032243139</v>
+        <v>0.9677227668784295</v>
       </c>
       <c r="N19">
-        <v>1.016712568414101</v>
+        <v>1.00671373874327</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032262070765459</v>
+        <v>0.9819580350163035</v>
       </c>
       <c r="D20">
-        <v>1.035565296689011</v>
+        <v>1.003889466725188</v>
       </c>
       <c r="E20">
-        <v>1.036073904376147</v>
+        <v>0.9919030767611392</v>
       </c>
       <c r="F20">
-        <v>1.028966780520638</v>
+        <v>0.9495147053197702</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037667999507206</v>
+        <v>1.03617648643187</v>
       </c>
       <c r="J20">
-        <v>1.038483449922003</v>
+        <v>1.010202607888582</v>
       </c>
       <c r="K20">
-        <v>1.038940356524718</v>
+        <v>1.017864267600451</v>
       </c>
       <c r="L20">
-        <v>1.039447186713101</v>
+        <v>1.006089810831087</v>
       </c>
       <c r="M20">
-        <v>1.032365076644264</v>
+        <v>0.9645074304663406</v>
       </c>
       <c r="N20">
-        <v>1.016607954408876</v>
+        <v>1.006093804600566</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030879355504044</v>
+        <v>0.9737031882978286</v>
       </c>
       <c r="D21">
-        <v>1.034519942558316</v>
+        <v>0.9977287879649613</v>
       </c>
       <c r="E21">
-        <v>1.034752299431716</v>
+        <v>0.984379702395009</v>
       </c>
       <c r="F21">
-        <v>1.026865435435733</v>
+        <v>0.9374210423338264</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037204803082583</v>
+        <v>1.032767528833726</v>
       </c>
       <c r="J21">
-        <v>1.037502235115205</v>
+        <v>1.004343051304106</v>
       </c>
       <c r="K21">
-        <v>1.038105597591348</v>
+        <v>1.012753317289211</v>
       </c>
       <c r="L21">
-        <v>1.038337087199442</v>
+        <v>0.9996631746066723</v>
       </c>
       <c r="M21">
-        <v>1.030479903823994</v>
+        <v>0.9536935871115756</v>
       </c>
       <c r="N21">
-        <v>1.016266632651602</v>
+        <v>1.004013584650028</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030008569865266</v>
+        <v>0.9683116302111481</v>
       </c>
       <c r="D22">
-        <v>1.033861475656042</v>
+        <v>0.993711198994883</v>
       </c>
       <c r="E22">
-        <v>1.033920345917816</v>
+        <v>0.9794736276948838</v>
       </c>
       <c r="F22">
-        <v>1.025542314144583</v>
+        <v>0.929480019836559</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036911431829859</v>
+        <v>1.030527194077023</v>
       </c>
       <c r="J22">
-        <v>1.036883411238966</v>
+        <v>1.000508533674232</v>
       </c>
       <c r="K22">
-        <v>1.037578878406593</v>
+        <v>1.009408276245284</v>
       </c>
       <c r="L22">
-        <v>1.037637520116294</v>
+        <v>0.9954629857647409</v>
       </c>
       <c r="M22">
-        <v>1.029292307649869</v>
+        <v>0.9465910752060852</v>
       </c>
       <c r="N22">
-        <v>1.016051094673023</v>
+        <v>1.002652133365406</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030470326054173</v>
+        <v>0.9711899833804621</v>
       </c>
       <c r="D23">
-        <v>1.034210657378568</v>
+        <v>0.9958554134868977</v>
       </c>
       <c r="E23">
-        <v>1.034361477360753</v>
+        <v>0.9820920467930092</v>
       </c>
       <c r="F23">
-        <v>1.026243912748048</v>
+        <v>0.9337238311478645</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037067157197925</v>
+        <v>1.031724506301251</v>
       </c>
       <c r="J23">
-        <v>1.037211642534204</v>
+        <v>1.002556333796945</v>
       </c>
       <c r="K23">
-        <v>1.03785828089752</v>
+        <v>1.011194698203284</v>
       </c>
       <c r="L23">
-        <v>1.038008527336496</v>
+        <v>0.9977055536273243</v>
       </c>
       <c r="M23">
-        <v>1.029922098381577</v>
+        <v>0.9503869043811052</v>
       </c>
       <c r="N23">
-        <v>1.016165444545223</v>
+        <v>1.003379209136879</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032285228553088</v>
+        <v>0.982093244941136</v>
       </c>
       <c r="D24">
-        <v>1.035582801910791</v>
+        <v>1.003990466745036</v>
       </c>
       <c r="E24">
-        <v>1.036096044524906</v>
+        <v>0.9920264263773859</v>
       </c>
       <c r="F24">
-        <v>1.029001978322787</v>
+        <v>0.9497121909794458</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037675728923986</v>
+        <v>1.036232093924762</v>
       </c>
       <c r="J24">
-        <v>1.038499868304377</v>
+        <v>1.010298462211361</v>
       </c>
       <c r="K24">
-        <v>1.038954319868478</v>
+        <v>1.017947865848025</v>
       </c>
       <c r="L24">
-        <v>1.039465770826805</v>
+        <v>1.006195028932307</v>
       </c>
       <c r="M24">
-        <v>1.03239664355058</v>
+        <v>0.964683978381322</v>
       </c>
       <c r="N24">
-        <v>1.01661366095417</v>
+        <v>1.006127829132086</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034385335095648</v>
+        <v>0.9939669968473406</v>
       </c>
       <c r="D25">
-        <v>1.037169938938617</v>
+        <v>1.012870698674441</v>
       </c>
       <c r="E25">
-        <v>1.038104682810893</v>
+        <v>1.002874172598747</v>
       </c>
       <c r="F25">
-        <v>1.032194665472047</v>
+        <v>0.9669877924508377</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038372693243779</v>
+        <v>1.041083118671716</v>
       </c>
       <c r="J25">
-        <v>1.039986670758239</v>
+        <v>1.018699115494934</v>
       </c>
       <c r="K25">
-        <v>1.040218169108321</v>
+        <v>1.025272445966396</v>
       </c>
       <c r="L25">
-        <v>1.041149986703071</v>
+        <v>1.015428033990129</v>
       </c>
       <c r="M25">
-        <v>1.035258568572324</v>
+        <v>0.9801211519785471</v>
       </c>
       <c r="N25">
-        <v>1.017129762002455</v>
+        <v>1.009108537445915</v>
       </c>
     </row>
   </sheetData>
